--- a/static/generated_files/marek/price_list_with_selling_prices.xlsx
+++ b/static/generated_files/marek/price_list_with_selling_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,11 +504,6 @@
           <t>Pcs ctn</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>price_label_1</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -518,74 +513,53 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>AVANCIS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>JAM54D40-425-GB-BF</t>
+          <t>AVANCIS POWERMAX SKALA 130W Green 4002</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>02/2024</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>130</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Black Frame</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Double glass</t>
-        </is>
-      </c>
+          <t>Frameless Full Green (4002)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>686</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1 722</t>
+          <t>1 595</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>45</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>936</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0.127</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -595,32 +569,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>JINKO</t>
+          <t>LONGI</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>JINKO JKM445N-54HL4 Black Frame / TIGER NEO N-TYPE</t>
+          <t>LR5-66HTH-530M</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4 680</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>06/2024</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>530</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -635,32 +601,27 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1 762</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>2 094</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>936</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0.127</t>
+          <t>682</t>
         </is>
       </c>
     </row>
@@ -672,32 +633,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>JINKO</t>
+          <t>LONGI</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>JINKO JKM450N-54HL4 Black Frame / TIGER NEO N-TYPE</t>
+          <t>LR5-66HTH-525W</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4 680</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>06/2024</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>525</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -712,32 +665,27 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1 762</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>2 094</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>936</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0.127</t>
+          <t>682</t>
         </is>
       </c>
     </row>
@@ -749,32 +697,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>JINKO</t>
+          <t>LONGI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>JINKO JKM480N-60HL4 Black Frame / TIGER NEO N-TYPE</t>
+          <t>LR5-54HTH-440M</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4 320</t>
+          <t>1 500</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>06/2024</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>440</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -789,12 +737,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1 906</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -809,12 +757,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>864</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0.127</t>
+          <t>936</t>
         </is>
       </c>
     </row>
@@ -826,37 +769,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>JINKO</t>
+          <t>LONGI</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>JINKO JKM585N-72HL4 TIGER NEO N-TYPE / SF</t>
+          <t>LR5-54HTH-435M</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1 240</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>06/2024</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
+          <t>877</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>435</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -866,12 +801,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2 278</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -881,17 +816,12 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>36</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>620</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0.127</t>
+          <t>936</t>
         </is>
       </c>
     </row>
@@ -903,52 +833,44 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>JINKO</t>
+          <t>LONGI</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>JINKO-JKM580N-72HL4-BDV Bifacial Ntype / SF</t>
+          <t>LR5-54HTH-420M</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3 600</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>05/2024</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>420</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Bifacial</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2 278</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -963,12 +885,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>720</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0.132</t>
+          <t>936</t>
         </is>
       </c>
     </row>
@@ -980,52 +897,44 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>JINKO</t>
+          <t>LONGI</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>JINKO-JKM585N-72HL4-BDV Bifacial Ntype / SF</t>
+          <t>LR5-54HTB-435M</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2 160</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>05/2024</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>435</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>Full Black</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Bifacial</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2 278</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1040,12 +949,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>720</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0.143</t>
+          <t>936</t>
         </is>
       </c>
     </row>
@@ -1057,52 +961,44 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>JINKO</t>
+          <t>LONGI</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>JINKO-JKM625N-78HL4-BDV Bifacial Ntype / SF</t>
+          <t>LR5-54HPH-415M</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1 728</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>05/2024</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>415</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Bifacial</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2 465</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1117,12 +1013,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>576</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0.143</t>
+          <t>936</t>
         </is>
       </c>
     </row>
@@ -1134,32 +1025,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TRINA</t>
+          <t>LONGI</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TRINA_NEG18R.28_495W-DUALGLASS_BF</t>
+          <t>LR5-54HIH-410M</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1 728</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>07/2024</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>410</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1169,7 +1052,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Double glass</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1179,7 +1062,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1 961</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1194,12 +1077,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>864</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0.130</t>
+          <t>936</t>
         </is>
       </c>
     </row>
@@ -1216,37 +1094,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>JINKO JKM435N-54HL4R-BDV Tiger NEO N-TYPE / BF</t>
+          <t>JINKO Tiger Neo 72HL4-(V) 575W</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2 700</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>04/2024</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>575</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Bifacial</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1256,27 +1126,22 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1 762</t>
+          <t>2 278</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>936</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0.140</t>
+          <t>620</t>
         </is>
       </c>
     </row>
@@ -1288,42 +1153,34 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TRINA</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>TRINA_NEG18R.28_500W-DUALGLASS_BF</t>
+          <t>JAM78S30-585/MR</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6 912</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>07/2024</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>585</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Double glass</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1333,27 +1190,22 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1 961</t>
+          <t>2 465</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>864</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0.133</t>
+          <t>496</t>
         </is>
       </c>
     </row>
@@ -1365,37 +1217,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TRINA</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>TRINA_NEG9R.25_435W Full black</t>
+          <t>JAM72S30-545/MR</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7 488</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>07/2024</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>545</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Full Black</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1410,7 +1254,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1 762</t>
+          <t>2 279</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1420,17 +1264,12 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>936</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0.139</t>
+          <t>620</t>
         </is>
       </c>
     </row>
@@ -1442,37 +1281,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TRINA</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>TRINA_NEG9R.25_440W Full black</t>
+          <t>JAM72S30-545-MR-SF 35MM</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3 744</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>09/2024</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>545</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Full Black</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1487,29 +1318,20 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>1 762</t>
+          <t>2 279</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>936</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>0.142</t>
-        </is>
-      </c>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1519,37 +1341,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TRINA</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>TRINA_NEG9R.25_445W Full black</t>
+          <t>JAM72S20-460-MR</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3 744</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>08/2024</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>460</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Full Black</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1559,32 +1373,27 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>1 052</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>1 762</t>
+          <t>2 112</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>936</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>0.145</t>
+          <t>682</t>
         </is>
       </c>
     </row>
@@ -1596,42 +1405,42 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TRINA</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>TRINA_NEG9R.28 n type 440 I-Topcon DualGlass</t>
+          <t>JAM72D40-585-MB</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>496</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>06/2024</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>585</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Double glass</t>
+          <t>Bifacial</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1641,7 +1450,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>1 762</t>
+          <t>2 278</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1656,12 +1465,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>936</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>0.134</t>
+          <t>720</t>
         </is>
       </c>
     </row>
@@ -1673,42 +1477,34 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TRINA</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>TRINA_NEG9R.28 n type 445 I-Topcon DualGlass</t>
+          <t>JAM72D40-580-MB</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>30 888</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>06/2024</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>580</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Double glass</t>
+          <t>Bifacial</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1718,7 +1514,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>1 762</t>
+          <t>2 278</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1733,12 +1529,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>936</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>0.142</t>
+          <t>720</t>
         </is>
       </c>
     </row>
@@ -1750,42 +1541,34 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TRINA</t>
+          <t>LONGI</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>TRINA_NEG9R.28 n type 450 I-Topcon DualGlass</t>
+          <t>LR5-72HBD-550M</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>59 904</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>06/2024</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>550</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Double glass</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1795,7 +1578,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>1 762</t>
+          <t>2 278</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1810,12 +1593,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>936</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>0.145</t>
+          <t>720</t>
         </is>
       </c>
     </row>
@@ -1827,42 +1605,34 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TRINA</t>
+          <t>JASOLAR</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>TRINA_NEG9R.28 n type 455 I-Topcon DualGlass</t>
+          <t>JAM72D40-575-MB</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>25 852</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>07/2024</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>575</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Double glass</t>
+          <t>Bifacial</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1872,7 +1642,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>1 762</t>
+          <t>2 278</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1887,12 +1657,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>936</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>0.147</t>
+          <t>720</t>
         </is>
       </c>
     </row>
@@ -1904,42 +1669,34 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRINA</t>
+          <t>LONGI</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>TRINA_NEG9RC.27 n type 430 I-Topcon Bifacial DualG</t>
+          <t>LR5-72HTH-570M</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>936</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>06/2024</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>570</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Double glass</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1949,27 +1706,22 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>1 762</t>
+          <t>2 278</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>936</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>0.149</t>
+          <t>620</t>
         </is>
       </c>
     </row>
@@ -1981,72 +1733,59 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRINA</t>
+          <t>SUNMAN</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>TRINA_NEG18R.28_505W-DUALGLASS_BF</t>
+          <t>SUNMAN_SMF430F</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1 728</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>07/2024</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>430</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Double glass</t>
+          <t>Flexible</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>1 080</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1 961</t>
+          <t>2 054</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>66</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>864</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>0.136</t>
+          <t>1 320</t>
         </is>
       </c>
     </row>
@@ -2058,72 +1797,59 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>JINKO</t>
+          <t>TRINA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>JINKO JKM430N-54HL4R-BDV Tiger NEO N-TYPE / BF</t>
+          <t>TRINA_TSM-550DE19</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4 680</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>04/2024</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>550</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Bifacial</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>1 096</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1 762</t>
+          <t>2 384</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>936</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>0.143</t>
+          <t>620</t>
         </is>
       </c>
     </row>
@@ -2135,42 +1861,34 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>TRINA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>JAM72S30-550/MR SF</t>
+          <t>TRINA_NEG9RC.27 n type 435 I-Topcon Bifacial DualG</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>12 944</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>06/2024</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
+          <t>1 625</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>435</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>Bifacial</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2180,7 +1898,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2 279</t>
+          <t>1 762</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2190,17 +1908,12 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>36</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>620</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>0.127</t>
+          <t>936</t>
         </is>
       </c>
     </row>
@@ -2212,42 +1925,34 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>TRINA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>JAM72D42-630-LB</t>
+          <t>TRINA_NEG9R.28_435W_DUALGLASS</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>496</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>03/2024</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>435</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Bifacial</t>
+          <t>Double glass</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2257,27 +1962,22 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2 465</t>
+          <t>1 762</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>36</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>496</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>0.134</t>
+          <t>936</t>
         </is>
       </c>
     </row>
@@ -2289,32 +1989,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>TRINA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>JAM54D40-435-LB-BF</t>
+          <t>TRINA_NEG9R.28_430W_DUALGLASS</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4 680</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>06/2024</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>430</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2334,7 +2026,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1 722</t>
+          <t>1 762</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2350,11 +2042,6 @@
       <c r="N25" t="inlineStr">
         <is>
           <t>936</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>0.134</t>
         </is>
       </c>
     </row>
@@ -2366,32 +2053,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>TRINA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>JAM54D40-440-GB-BF</t>
+          <t>TRINA_NEG9R.28 n type 450 I-Topcon DualGlass</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4 680</t>
+          <t>735</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>06/2024</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>450</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2406,12 +2093,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>1 722</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>1 762</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2427,11 +2114,6 @@
       <c r="N26" t="inlineStr">
         <is>
           <t>936</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>0.130</t>
         </is>
       </c>
     </row>
@@ -2443,27 +2125,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>TRINA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>JAM54D40-445-LB-BF</t>
+          <t>TRINA_NEG9R.28 n type 445 I-Topcon DualGlass</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>18 720</t>
+          <t>1 677</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>05/2024</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2483,14 +2165,14 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
           <t>1 762</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>1 134</t>
-        </is>
-      </c>
       <c r="L27" t="inlineStr">
         <is>
           <t>30</t>
@@ -2504,11 +2186,6 @@
       <c r="N27" t="inlineStr">
         <is>
           <t>936</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>0.134</t>
         </is>
       </c>
     </row>
@@ -2520,37 +2197,29 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>TRINA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>JAM54D41-435-GB-ALL BLACK</t>
+          <t>TRINA_DEG09R.08_420W_DUALGLASS</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2 628</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>06/2024</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>420</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Full Black</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2560,19 +2229,19 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>1 722</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
+          <t>1 762</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>1 134</t>
-        </is>
-      </c>
       <c r="M28" t="inlineStr">
         <is>
           <t>36</t>
@@ -2581,11 +2250,6 @@
       <c r="N28" t="inlineStr">
         <is>
           <t>936</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>0.135</t>
         </is>
       </c>
     </row>
@@ -2597,42 +2261,34 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>TRINA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>JAM54D41-435-LB-ALL BLACK</t>
+          <t>TRINA_DE09R.08_430W</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>17 784</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>05/2024</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>430</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Full Black</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Double glass</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2658,11 +2314,6 @@
       <c r="N29" t="inlineStr">
         <is>
           <t>936</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>0.140</t>
         </is>
       </c>
     </row>
@@ -2674,42 +2325,34 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>TRINA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>JAM54D41-440-LB-ALL BLACK</t>
+          <t>TRINA_DE09R.08_425W</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>10 656</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>06/2024</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>425</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Full Black</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Double glass</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2735,11 +2378,6 @@
       <c r="N30" t="inlineStr">
         <is>
           <t>936</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>0.140</t>
         </is>
       </c>
     </row>
@@ -2751,29 +2389,21 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>TRINA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>JAM54S30-415-MR-BF</t>
+          <t>TRINA_DE09R.08W_415W</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>15 912</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>02/2024</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
           <t>415</t>
@@ -2796,7 +2426,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>1 722</t>
+          <t>1 762</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2812,11 +2442,6 @@
       <c r="N31" t="inlineStr">
         <is>
           <t>936</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>0.118</t>
         </is>
       </c>
     </row>
@@ -2828,37 +2453,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>TRINA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>JAM54S30-420-GR-BF</t>
+          <t>TRINA_DE09R.05_415W_Full black</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>662</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>02/2024</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>415</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>Full Black</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2873,7 +2490,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>1 722</t>
+          <t>1 762</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2889,11 +2506,6 @@
       <c r="N32" t="inlineStr">
         <is>
           <t>936</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>0.118</t>
         </is>
       </c>
     </row>
@@ -2905,32 +2517,24 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>TONGWEI</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>JAM54S30-420-LR-BF</t>
+          <t>TW-410W MAP-108-H-S BF</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1 872</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>02/2024</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>410</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2950,7 +2554,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>1 762</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2966,11 +2570,6 @@
       <c r="N33" t="inlineStr">
         <is>
           <t>936</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>0.113</t>
         </is>
       </c>
     </row>
@@ -2982,32 +2581,24 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>TONGWEI</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>JAM54S31-405-MR-ALLBLACK</t>
+          <t>TW-400W- MAP-108-H-FULL BLACK</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>19 656</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>02/2024</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>400</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -3043,11 +2634,6 @@
       <c r="N34" t="inlineStr">
         <is>
           <t>936</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>0.118</t>
         </is>
       </c>
     </row>
@@ -3059,72 +2645,59 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>SUNPORT</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>JAM60S20-385-MR-BF</t>
+          <t>SUNPORT SPP380QHES</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>130</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>05/2024</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>380</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>Silver Frame</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>Flexible</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>1 052</t>
+          <t>1 040</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>1 769</t>
+          <t>1 840</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>2.500</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>46</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>806</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>0.121</t>
+          <t>1 104</t>
         </is>
       </c>
     </row>
@@ -3136,72 +2709,59 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>SUNPORT</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>JAM66S30-505-MR BF</t>
+          <t>SUNPORT SPP375QHES-B</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>11 088</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>05/2024</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>375</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Black Frame</t>
+          <t>Full Black</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Glass foil</t>
+          <t>Flexible</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>1 040</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>2 093</t>
+          <t>1 840</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>2.500</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>46</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>792</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>0.119</t>
+          <t>1 104</t>
         </is>
       </c>
     </row>
@@ -3213,32 +2773,32 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>LONGI</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>JAM72D30-545-MB-SF</t>
+          <t>LR5-72HTH-575M</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>5 760</t>
+          <t>847</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>04/2024</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>575</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3248,17 +2808,17 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Double glass</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>1 052</t>
+          <t>1 134</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>2 117</t>
+          <t>2 278</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3274,11 +2834,6 @@
       <c r="N37" t="inlineStr">
         <is>
           <t>620</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>0.127</t>
         </is>
       </c>
     </row>
@@ -3300,19 +2855,11 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>11 520</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>06/2024</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
+          <t>879</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
           <t>550</t>
@@ -3351,11 +2898,6 @@
       <c r="N38" t="inlineStr">
         <is>
           <t>720</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>0.127</t>
         </is>
       </c>
     </row>
@@ -3372,27 +2914,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>JAM72D30-560-LB</t>
+          <t>JAM72D30-545-MB-SF</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>482</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>03/2024</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>545</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3428,11 +2970,6 @@
       <c r="N39" t="inlineStr">
         <is>
           <t>620</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>0.121</t>
         </is>
       </c>
     </row>
@@ -3449,27 +2986,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>JAM72D40-580-GB</t>
+          <t>JAM72D30-540-MB-SF</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>12 852</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>06/2024</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>540</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3479,37 +3008,32 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Bifacial</t>
+          <t>Double glass</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>1 052</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>2 278</t>
+          <t>2 117</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>720</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>0.128</t>
+          <t>620</t>
         </is>
       </c>
     </row>
@@ -3521,32 +3045,24 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>CANADIAN</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>JAM72D40-580-MB</t>
+          <t>CS6R-410 SF</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>12 240</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>04/2024</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>410</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3556,7 +3072,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Bifacial</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3566,7 +3082,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>2 278</t>
+          <t>1 722</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3576,17 +3092,12 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>720</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>0.128</t>
+          <t>910</t>
         </is>
       </c>
     </row>
@@ -3598,42 +3109,42 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>CANADIAN</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>JAM72D40-585-MB</t>
+          <t>CS6L-460MS_BF</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>15 840</t>
+          <t>454</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>05/2024</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>460</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
+          <t>Black Frame</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Bifacial</t>
+          <t>Glass foil</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3643,7 +3154,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>2 278</t>
+          <t>1 903</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3653,17 +3164,12 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>720</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>0.128</t>
+          <t>840</t>
         </is>
       </c>
     </row>
@@ -3675,74 +3181,53 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>JASOLAR</t>
+          <t>AVANCIS</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>JAM72D40-590-LB</t>
+          <t>AVANCIS SKALA G002 130W Grey</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>14 400</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>06/2024</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>130</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Silver Frame</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Bifacial</t>
-        </is>
-      </c>
+          <t>Frameless Full Grey (G002)</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>664</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>2 333</t>
+          <t>1 587</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>38</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>720</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>0.128</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3752,74 +3237,49 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TRINA</t>
+          <t>AVANCIS</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>TRINA_NEG9RC.27 n type 435 I-Topcon Bifacial DualG</t>
+          <t>AVANCIS SKALA B001 140W Black</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>22 032</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>05/2024</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>435</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Black Frame</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Bifacial</t>
-        </is>
-      </c>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>1 134</t>
+          <t>664</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>1 762</t>
+          <t>1 587</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>38</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>936</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>0.152</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3829,72 +3289,2047 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>AVANCIS</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>AVANCIS SKALA 70W G001</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Frameless Full Anthracite (G001)</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>1 587</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>AVANCIS</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>AVANCIS SKALA 140W</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>1 587</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>AVANCIS</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>AVANCIS SKALA 135W G001 Anthracite</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Frameless Full Dark blue (7002)</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>1 587</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>AVANCIS</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>AVANCIS SKALA 135W 7002 Dark Blue</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Frameless Full Dark blue (7002)</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>1 587</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AVANCIS</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>AVANCIS SKALA 130W B</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>1 587</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>AVANCIS</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>AVANCIS SKALA 130W</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>1 587</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>AVANCIS</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>AVANCIS SKALA 125W</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>1 587</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>AVANCIS</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>AVANCIS SKALA 120W 3002 Gold</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Frameless Full Gold (3002)</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>1 587</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>AVANCIS</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>AVANCIS SKALA 115W</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>1 587</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>AVANCIS</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>AVANCIS SKALA 100W 1202 RED</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>1 587</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>AVANCIS</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>AVANCIS POWERMAX SKALA 150W B901</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>686</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>1 595</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>CANADIAN</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>CS6R-415 BF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>910</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>CANADIAN</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>CS7L-595MS</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>1 303</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>2 172</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>CANADIAN</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>CS7N-665MS</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1 798</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>665</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>1 303</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>2 384</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>558</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>CANADIAN</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Canadian CS6R-440T n type topcon</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>910</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>JASOLAR</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>JAM66S30-505-MR BF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2024-05</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>2 093</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>JASOLAR</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>JAM60S20-385-MR-BF [NEW]</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>1 052</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>1 769</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>806</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>JASOLAR</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>JAM60S20-385-MR-BF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2024-05</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>1 052</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>1 769</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>806</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>JASOLAR</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>JAM54S31-410-MR-ALLBLACK</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Full Black</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>JASOLAR</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>JAM54S31-405-MR-ALLBLACK</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2024-02</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Full Black</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>JASOLAR</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>JAM54S30-425-LR-BF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>JASOLAR</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>JAM54S30-420-GR-BF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2024-02</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
           <t>TRINA</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>TRINA_NEG9RC.27 n type 440 I-Topcon Bifacial DualG</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>20 592</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>07/2024</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>TRINA_TSM-555DE19</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>1 096</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>2 384</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>JASOLAR</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>JAM54S30-415-MR-BF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>JASOLAR</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>JAM54S30-410-MR-SF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Silver Frame</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>JASOLAR</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>JAM54S30-405-MR-BF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>JASOLAR</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>JAM54D41-440-LB-ALL BLACK</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
         <is>
           <t>440</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Full Black</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Double glass</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>1 762</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>JASOLAR</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>JAM54D40-445-LB-BF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2024-04</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
         <is>
           <t>Black Frame</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Double glass</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>1 762</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>JASOLAR</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>JAM54D40-435-LB-BF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Double glass</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>JASOLAR</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>JAM54D40-425-GB-BF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Double glass</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>JASOLAR</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>JAM54D40-420-MB-BF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Double glass</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>JASOLAR</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>JAM54S30-415-GR-BF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Glass foil</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>1 134</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>1 722</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Panels</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>TRINA</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>TRINA_TSM-650_DEG21C.20</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Black Frame</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>Bifacial</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>1 134</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>1 762</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>936</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>0.151</t>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>1 303</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>2 384</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>594</t>
         </is>
       </c>
     </row>
